--- a/config_Release/audio_config.xlsx
+++ b/config_Release/audio_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="game|游戏内" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1902">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6985,6 +6985,18 @@
   </si>
   <si>
     <t>别打我边上那条值钱|黄金灯笼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangchijinbi_fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池界面金币飞行音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangchijinbi_fly.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6992,7 +7004,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7092,6 +7104,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7122,7 +7142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7203,6 +7223,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -7484,10 +7508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7958,6 +7982,22 @@
       <c r="C42" t="s">
         <v>1212</v>
       </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="36" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8578,8 +8618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/config_Release/audio_config.xlsx
+++ b/config_Release/audio_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="game|游戏内" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="ttl|弹弹乐" sheetId="15" r:id="rId14"/>
     <sheet name="pgdz|苹果大战" sheetId="16" r:id="rId15"/>
     <sheet name="sdbgj|三打白骨精" sheetId="17" r:id="rId16"/>
+    <sheet name="lwzb|龙王争霸" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="1962">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6997,6 +6998,246 @@
   </si>
   <si>
     <t>bgm_by_jiangchijinbi_fly.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name|名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_name|文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaishicn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开炮声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_yazhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他玩家充能声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiguang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_daojishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_daojishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时-5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jieshu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_bipaibg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_bipaibg.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比牌时的背景声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_vs.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS碰撞声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipai.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开牌声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shengli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shengli.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shibai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shibai.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shouji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiesuan_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面-赢钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiesuan_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面-数钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖界面音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_zhuandong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖转动音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_tingzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_tingzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖停止音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_huojiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_huojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖获奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jieshu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_zhongzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shouji.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiangli3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_zhuandong.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7113,7 +7354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7123,6 +7364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7142,7 +7389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7227,6 +7474,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -7510,7 +7760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -10491,7 +10741,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10625,8 +10875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11107,6 +11357,250 @@
       </c>
       <c r="C43" t="s">
         <v>1819</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5">
+      <c r="A1" s="13" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="38" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="38" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="40" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="40" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="40" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="38" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="38" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1953</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/audio_config.xlsx
+++ b/config_Release/audio_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="game|游戏内" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1967">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6172,6 +6172,971 @@
     <t>bgm_sdbgj_luoxia</t>
   </si>
   <si>
+    <t>bgm_sdbgj_1xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_2xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_3xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_4xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_5xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_6xiao</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiajianzhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiajianzhu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏背景音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精烟雾音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空消除的音效-俺老孙来也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_huo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空火焰音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_skill.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME金箍棒音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-火眼金睛-妖怪哪里跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除唐僧免费次数撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空撞击白骨精音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-金箍棒-吃俺老孙一棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-金箍-领教下俺老孙的本事吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_xhz.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-小猴子-哼，这就是他们的本事？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli1</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算4（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_jl4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_shxxl_jiangli1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_jiesuan1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_goldboomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_yincanghuodong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_zuantouboom.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_4bei.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_game_card_bombsod.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_lababaozha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dabaopo.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_boomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3</t>
+  </si>
+  <si>
+    <t>白骨精-老妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-老头音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2消</t>
+  </si>
+  <si>
+    <t>4消</t>
+  </si>
+  <si>
+    <t>5消</t>
+  </si>
+  <si>
+    <t>结算2</t>
+  </si>
+  <si>
+    <t>结算3（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu1_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishendanchufa.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_chufa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME奖池撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_yanwu.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_huo.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME白骨精出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME孙悟空摇奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_swk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空卡牌攻击白骨精时音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏前白骨精对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_gongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_bgj_duihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_bgj_duihua.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jinru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jinru.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开游戏，孙悟空说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang7.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang8.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang9.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang10.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang16.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang17.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang19.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang23.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang0.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang7.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang8.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang9.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang10.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang16.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang22.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang25.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang26.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang29.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang30.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang31.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂鲨吃鱼得分时的音效，循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDjisha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_shandianyu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电海鳗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~40倍鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_shandianyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海默死亡的吼叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次你又赢了|60虎鲸</t>
+  </si>
+  <si>
+    <t>这可是传家宝|穿云蟹、电磁蟹、奇遇蟹</t>
+  </si>
+  <si>
+    <t>哼，都欺负我|</t>
+  </si>
+  <si>
+    <t>不要这么对我嘛|</t>
+  </si>
+  <si>
+    <t>可恶啊|远古龙龟</t>
+  </si>
+  <si>
+    <t>我还会回来的|霸王蟹</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>黄金巨龙|黄金巨龙</t>
+  </si>
+  <si>
+    <t>2~10倍|</t>
+  </si>
+  <si>
+    <t>我会回来找你们的|深海狂鲨</t>
+  </si>
+  <si>
+    <t>手下留情啊|招财宝蟾</t>
+  </si>
+  <si>
+    <t>你好厉害呀|金龙转盘</t>
+  </si>
+  <si>
+    <t>每次倒霉的都是我|骰子龟</t>
+  </si>
+  <si>
+    <t>上帝救救我把</t>
+  </si>
+  <si>
+    <t>这次你赚太多了|炽火龙王</t>
+  </si>
+  <si>
+    <t>谁谁，不要啊|鲨鱼将军</t>
+  </si>
+  <si>
+    <t>吓死宝宝了</t>
+  </si>
+  <si>
+    <t>你就不能温柔点嘛|宝藏章鱼</t>
+  </si>
+  <si>
+    <t>哦，NO|深海巨鲸</t>
+  </si>
+  <si>
+    <t>天呐，你发大财咯|宝藏鳄鱼</t>
+  </si>
+  <si>
+    <t>为什么每次受伤的都是我|美人鱼</t>
+  </si>
+  <si>
+    <t>躲来躲去还是被打到了|黄金海龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你就知道欺负我|黄金狮子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦哦，我又被打中了|黄金河豚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的老天爷呀|黄金锤头鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你也太狠了吧|大金鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我上辈子欠你们的呀|金蟾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打我边上那条值钱|黄金灯笼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangchijinbi_fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池界面金币飞行音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangchijinbi_fly.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name|名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_name|文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaishicn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开炮声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_yazhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他玩家充能声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiguang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_daojishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_daojishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时-5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jieshu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_bipaibg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_bipaibg.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比牌时的背景声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_vs.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS碰撞声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipai.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开牌声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shengli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shengli.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shibai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shibai.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shouji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiesuan_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面-赢钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiesuan_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面-数钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖界面音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_zhuandong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖转动音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_tingzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_tingzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖停止音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_huojiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_huojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖获奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jieshu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_zhongzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shouji.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiangli3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_zhuandong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_kaishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bgm_sdbgj_1xiao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6180,110 +7145,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_sdbgj_2xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_3xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_4xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_5xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_6xiao</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiajianzhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiajianzhu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_beijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏背景音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bgm_sdbgj_yanwu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白骨精烟雾音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空消除的音效-俺老孙来也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_huo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空火焰音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_skill.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME金箍棒音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白骨精消除音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙悟空技能-火眼金睛-妖怪哪里跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除唐僧免费次数撞击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空撞击白骨精音效</t>
+    <t>免费游戏中消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精摇奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洒落白骨精音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6295,22 +7177,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_sdbgj_swk_yj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙悟空技能摇奖音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_sdbgj_jgb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-金箍棒-吃俺老孙一棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bgm_sdbgj_jg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6319,238 +7189,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙悟空技能-金箍-领教下俺老孙的本事吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bgm_sdbgj_xhz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_sdbgj_xhz.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-小猴子-哼，这就是他们的本事？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli1</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算4（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_jl4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_shxxl_jiangli1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_xxl_luoxia.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_kaishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏中消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiesuan1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_goldboomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_yincanghuodong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_zuantouboom.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_4bei.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_lababaozha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dabaopo.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang21.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_boomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3</t>
+    <t>bgm_sdbgj_bgj_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白骨精-村妇音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白骨精-老妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-老头音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bgm_sdbgj_bgj_3.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元素落下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2消</t>
-  </si>
-  <si>
-    <t>4消</t>
-  </si>
-  <si>
-    <t>5消</t>
-  </si>
-  <si>
-    <t>加减注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结算1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结算2</t>
-  </si>
-  <si>
-    <t>结算3（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu1_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj</t>
+    <t>bgm_csxxl_caishendanchufa.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏触发音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6558,686 +7225,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_csxxl_caishenyaojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishendanchufa.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_chufa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏触发音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME奖池撞击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精摇奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洒落白骨精音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_yanwu.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_huo.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_yj.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME白骨精出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME孙悟空摇奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_bgj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_bgj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_swk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jgb.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空卡牌攻击白骨精时音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏前白骨精对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_gongji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_bgj_duihua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_bgj_duihua.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishendanchufa.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jinru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jinru.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jgb.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开游戏，孙悟空说话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang7.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang8.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang9.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang10.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang12.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang14.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang15.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang16.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang17.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang19.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang20.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang23.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang0.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang7.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang8.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang9.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang10.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang12.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang14.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang15.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang16.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang20.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang22.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang25.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang29.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang30.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang31.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂鲨吃鱼得分时的音效，循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDjisha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_shandianyu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电海鳗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~40倍鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_shandianyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海默死亡的吼叫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这次你又赢了|60虎鲸</t>
-  </si>
-  <si>
-    <t>这可是传家宝|穿云蟹、电磁蟹、奇遇蟹</t>
-  </si>
-  <si>
-    <t>哼，都欺负我|</t>
-  </si>
-  <si>
-    <t>不要这么对我嘛|</t>
-  </si>
-  <si>
-    <t>可恶啊|远古龙龟</t>
-  </si>
-  <si>
-    <t>我还会回来的|霸王蟹</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>黄金巨龙|黄金巨龙</t>
-  </si>
-  <si>
-    <t>2~10倍|</t>
-  </si>
-  <si>
-    <t>我会回来找你们的|深海狂鲨</t>
-  </si>
-  <si>
-    <t>手下留情啊|招财宝蟾</t>
-  </si>
-  <si>
-    <t>你好厉害呀|金龙转盘</t>
-  </si>
-  <si>
-    <t>每次倒霉的都是我|骰子龟</t>
-  </si>
-  <si>
-    <t>上帝救救我把</t>
-  </si>
-  <si>
-    <t>这次你赚太多了|炽火龙王</t>
-  </si>
-  <si>
-    <t>谁谁，不要啊|鲨鱼将军</t>
-  </si>
-  <si>
-    <t>吓死宝宝了</t>
-  </si>
-  <si>
-    <t>你就不能温柔点嘛|宝藏章鱼</t>
-  </si>
-  <si>
-    <t>哦，NO|深海巨鲸</t>
-  </si>
-  <si>
-    <t>天呐，你发大财咯|宝藏鳄鱼</t>
-  </si>
-  <si>
-    <t>为什么每次受伤的都是我|美人鱼</t>
-  </si>
-  <si>
-    <t>躲来躲去还是被打到了|黄金海龟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你就知道欺负我|黄金狮子鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哦哦，我又被打中了|黄金河豚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的老天爷呀|黄金锤头鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你也太狠了吧|大金鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我上辈子欠你们的呀|金蟾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打我边上那条值钱|黄金灯笼鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiangchijinbi_fly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖池界面金币飞行音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiangchijinbi_fly.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name|名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_name|文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|使用说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_beijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaishicn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始充能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaipao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaipao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开炮声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_yazhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他玩家充能声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiguang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiguang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_daojishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_daojishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒计时-5秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jieshu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止充能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_bipaibg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_bipaibg.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比牌时的背景声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_vs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_vs.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VS碰撞声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaipai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaipai.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开牌声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shengli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shengli.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜利声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shibai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shibai.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shouji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiesuan_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算界面-赢钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiesuan_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算界面-数钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖界面音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_zhuandong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖转动音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_tingzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_tingzhi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖停止音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_huojiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_huojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖获奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jieshu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_zhongzhi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_caishenyaojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shouji.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiangli2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiangli3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_zhuandong.mp3</t>
+    <t>bgm_sdbgj_disanpai_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_disanpai_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三排摇奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_down.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素栏落下声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_free.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇到3个唐僧触发音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8205,7 +8225,7 @@
         <v>1003</v>
       </c>
       <c r="B40" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="C40" t="s">
         <v>1002</v>
@@ -8235,13 +8255,13 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="36" t="s">
-        <v>1899</v>
+        <v>1872</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>1901</v>
+        <v>1874</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>1900</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8653,7 +8673,7 @@
         <v>1302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1786</v>
+        <v>1766</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1303</v>
@@ -8664,7 +8684,7 @@
         <v>1308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1787</v>
+        <v>1767</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1310</v>
@@ -8675,7 +8695,7 @@
         <v>1311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1785</v>
+        <v>1765</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>1312</v>
@@ -8686,7 +8706,7 @@
         <v>1304</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1313</v>
@@ -9105,7 +9125,7 @@
         <v>1456</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>1457</v>
@@ -9114,13 +9134,13 @@
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="13" t="s">
-        <v>1867</v>
+        <v>1840</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>1820</v>
+        <v>1793</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="25"/>
@@ -9131,10 +9151,10 @@
         <v>1458</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>1821</v>
+        <v>1794</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="25"/>
@@ -9145,10 +9165,10 @@
         <v>812</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>1822</v>
+        <v>1795</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="25"/>
@@ -9159,10 +9179,10 @@
         <v>813</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1823</v>
+        <v>1796</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="25"/>
@@ -9173,10 +9193,10 @@
         <v>814</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>1824</v>
+        <v>1797</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="25"/>
@@ -9187,10 +9207,10 @@
         <v>815</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>1841</v>
+        <v>1814</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="25"/>
@@ -9201,10 +9221,10 @@
         <v>1530</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1825</v>
+        <v>1798</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="25"/>
@@ -9215,10 +9235,10 @@
         <v>817</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>1826</v>
+        <v>1799</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="14"/>
@@ -9228,10 +9248,10 @@
         <v>818</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>1827</v>
+        <v>1800</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="14"/>
@@ -9241,10 +9261,10 @@
         <v>819</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>1828</v>
+        <v>1801</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="14"/>
@@ -9254,10 +9274,10 @@
         <v>820</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>1829</v>
+        <v>1802</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="14"/>
@@ -9267,10 +9287,10 @@
         <v>821</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>1830</v>
+        <v>1803</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="14"/>
@@ -9280,10 +9300,10 @@
         <v>822</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>1831</v>
+        <v>1804</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="14"/>
@@ -9293,10 +9313,10 @@
         <v>823</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>1832</v>
+        <v>1805</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="14"/>
@@ -9307,10 +9327,10 @@
         <v>824</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>1833</v>
+        <v>1806</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1871</v>
+        <v>1844</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -9322,10 +9342,10 @@
         <v>825</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>1834</v>
+        <v>1807</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1872</v>
+        <v>1845</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -9337,10 +9357,10 @@
         <v>826</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>1835</v>
+        <v>1808</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>1873</v>
+        <v>1846</v>
       </c>
       <c r="D36" s="14"/>
       <c r="F36" s="14"/>
@@ -9350,10 +9370,10 @@
         <v>827</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1836</v>
+        <v>1809</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>1874</v>
+        <v>1847</v>
       </c>
       <c r="D37" s="14"/>
       <c r="F37" s="14"/>
@@ -9363,10 +9383,10 @@
         <v>1459</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>1837</v>
+        <v>1810</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1875</v>
+        <v>1848</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -9377,10 +9397,10 @@
         <v>1460</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>1838</v>
+        <v>1811</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1876</v>
+        <v>1849</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -9392,7 +9412,7 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="14" t="s">
-        <v>1877</v>
+        <v>1850</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -9404,7 +9424,7 @@
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="14" t="s">
-        <v>1877</v>
+        <v>1850</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -9415,10 +9435,10 @@
         <v>1529</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>1839</v>
+        <v>1812</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1878</v>
+        <v>1851</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -9429,10 +9449,10 @@
         <v>1463</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>1840</v>
+        <v>1813</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1879</v>
+        <v>1852</v>
       </c>
       <c r="D43" s="14"/>
       <c r="F43" s="14"/>
@@ -9442,10 +9462,10 @@
         <v>1464</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>1842</v>
+        <v>1815</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>1892</v>
+        <v>1865</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -9456,10 +9476,10 @@
         <v>1465</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>1843</v>
+        <v>1816</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>1893</v>
+        <v>1866</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -9470,10 +9490,10 @@
         <v>1466</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1844</v>
+        <v>1817</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1894</v>
+        <v>1867</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -9484,10 +9504,10 @@
         <v>1467</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>1845</v>
+        <v>1818</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1880</v>
+        <v>1853</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -9498,10 +9518,10 @@
         <v>1468</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>1846</v>
+        <v>1819</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>1895</v>
+        <v>1868</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -9512,10 +9532,10 @@
         <v>1469</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>1847</v>
+        <v>1820</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>1896</v>
+        <v>1869</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -9526,10 +9546,10 @@
         <v>1470</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>1848</v>
+        <v>1821</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>1897</v>
+        <v>1870</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -9540,10 +9560,10 @@
         <v>1471</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>1849</v>
+        <v>1822</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>1881</v>
+        <v>1854</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -9554,10 +9574,10 @@
         <v>1472</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1850</v>
+        <v>1823</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>1882</v>
+        <v>1855</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -9568,10 +9588,10 @@
         <v>1473</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>1851</v>
+        <v>1824</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>1883</v>
+        <v>1856</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="21"/>
@@ -9582,10 +9602,10 @@
         <v>1474</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>1852</v>
+        <v>1825</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>1884</v>
+        <v>1857</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
@@ -9596,10 +9616,10 @@
         <v>1475</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>1853</v>
+        <v>1826</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>1885</v>
+        <v>1858</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -9610,10 +9630,10 @@
         <v>1545</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>1854</v>
+        <v>1827</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>1886</v>
+        <v>1859</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -9624,10 +9644,10 @@
         <v>1574</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>1855</v>
+        <v>1828</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>1887</v>
+        <v>1860</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -9638,10 +9658,10 @@
         <v>1575</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>1856</v>
+        <v>1829</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>1888</v>
+        <v>1861</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
@@ -9652,10 +9672,10 @@
         <v>1576</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1857</v>
+        <v>1830</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>1898</v>
+        <v>1871</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -9666,10 +9686,10 @@
         <v>1577</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1858</v>
+        <v>1831</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>1889</v>
+        <v>1862</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -9680,10 +9700,10 @@
         <v>1578</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>1859</v>
+        <v>1832</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>1890</v>
+        <v>1863</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -9694,10 +9714,10 @@
         <v>1579</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1860</v>
+        <v>1833</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>1891</v>
+        <v>1864</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -9708,10 +9728,10 @@
         <v>1580</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>1862</v>
+        <v>1835</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>1870</v>
+        <v>1843</v>
       </c>
       <c r="D63" s="14"/>
       <c r="F63" s="14"/>
@@ -9768,13 +9788,13 @@
     </row>
     <row r="70" spans="1:6" ht="16.5">
       <c r="A70" s="13" t="s">
-        <v>1868</v>
+        <v>1841</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>1681</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>1780</v>
+        <v>1761</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="25"/>
@@ -9785,10 +9805,10 @@
         <v>1476</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1756</v>
+        <v>1742</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>1781</v>
+        <v>1762</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="25"/>
@@ -9796,13 +9816,13 @@
     </row>
     <row r="72" spans="1:6" ht="16.5">
       <c r="A72" s="13" t="s">
-        <v>1869</v>
+        <v>1842</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>1864</v>
+        <v>1837</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>1865</v>
+        <v>1838</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="13"/>
@@ -9825,7 +9845,7 @@
         <v>1480</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>1481</v>
@@ -9837,7 +9857,7 @@
         <v>1482</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>1483</v>
@@ -9945,7 +9965,7 @@
         <v>1503</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>1504</v>
@@ -10128,7 +10148,7 @@
         <v>1621</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>1861</v>
+        <v>1834</v>
       </c>
       <c r="D99" s="13"/>
     </row>
@@ -10185,7 +10205,7 @@
         <v>1614</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>1862</v>
+        <v>1835</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>1615</v>
@@ -10197,7 +10217,7 @@
         <v>1616</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>1863</v>
+        <v>1836</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>1617</v>
@@ -10269,7 +10289,7 @@
         <v>1646</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>1664</v>
@@ -10421,25 +10441,25 @@
     </row>
     <row r="123" spans="1:5" ht="16.5">
       <c r="A123" s="13" t="s">
-        <v>1778</v>
+        <v>1759</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>1759</v>
+        <v>1745</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>1757</v>
+        <v>1743</v>
       </c>
       <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:5" ht="16.5">
       <c r="A124" s="13" t="s">
-        <v>1779</v>
+        <v>1760</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>1758</v>
+        <v>1744</v>
       </c>
       <c r="D124" s="14"/>
     </row>
@@ -10591,7 +10611,7 @@
         <v>1392</v>
       </c>
       <c r="B12" t="s">
-        <v>1754</v>
+        <v>1740</v>
       </c>
       <c r="C12" t="s">
         <v>1393</v>
@@ -10690,7 +10710,7 @@
         <v>1415</v>
       </c>
       <c r="B21" t="s">
-        <v>1753</v>
+        <v>1739</v>
       </c>
       <c r="C21" t="s">
         <v>1416</v>
@@ -10873,16 +10893,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10894,7 +10914,7 @@
         <v>1266</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1267</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10902,7 +10922,7 @@
         <v>1682</v>
       </c>
       <c r="B2" t="s">
-        <v>1782</v>
+        <v>1763</v>
       </c>
       <c r="C2" t="s">
         <v>746</v>
@@ -10910,10 +10930,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>1737</v>
+        <v>1935</v>
       </c>
       <c r="B3" t="s">
-        <v>1818</v>
+        <v>1791</v>
       </c>
       <c r="C3" t="s">
         <v>1683</v>
@@ -10924,40 +10944,40 @@
         <v>1684</v>
       </c>
       <c r="B4" t="s">
-        <v>1736</v>
+        <v>957</v>
       </c>
       <c r="C4" t="s">
-        <v>1769</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B5" t="s">
         <v>1685</v>
       </c>
-      <c r="B5" t="s">
-        <v>1686</v>
-      </c>
       <c r="C5" t="s">
-        <v>1770</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C6" t="s">
-        <v>1771</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B7" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C7" t="s">
         <v>1329</v>
@@ -10965,32 +10985,32 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C8" t="s">
-        <v>1772</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B9" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C9" t="s">
-        <v>1773</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B10" t="s">
-        <v>1686</v>
+        <v>1937</v>
       </c>
       <c r="C10" t="s">
         <v>1332</v>
@@ -10998,365 +11018,395 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B11" t="s">
         <v>1692</v>
       </c>
-      <c r="B11" t="s">
-        <v>1693</v>
-      </c>
       <c r="C11" t="s">
-        <v>1774</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B12" t="s">
         <v>1694</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>1695</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>1697</v>
+        <v>1938</v>
       </c>
       <c r="B13" t="s">
-        <v>1793</v>
+        <v>1770</v>
       </c>
       <c r="C13" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C14" t="s">
         <v>1699</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B15" t="s">
-        <v>1794</v>
+        <v>1771</v>
       </c>
       <c r="C15" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C16" t="s">
         <v>1704</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B17" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C17" t="s">
-        <v>1709</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>1805</v>
+        <v>1781</v>
       </c>
       <c r="B18" t="s">
-        <v>1795</v>
+        <v>1772</v>
       </c>
       <c r="C18" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="B19" t="s">
-        <v>1804</v>
+        <v>1780</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="B20" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1738</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B21" t="s">
-        <v>1146</v>
+        <v>994</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>1800</v>
+        <v>1777</v>
       </c>
       <c r="B22" t="s">
-        <v>1146</v>
+        <v>994</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>1790</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>1806</v>
+        <v>1782</v>
       </c>
       <c r="B23" t="s">
-        <v>1752</v>
+        <v>897</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>1783</v>
+        <v>1941</v>
       </c>
       <c r="B24" t="s">
-        <v>1813</v>
+        <v>1764</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>1791</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>1755</v>
+        <v>1741</v>
       </c>
       <c r="B25" t="s">
-        <v>1797</v>
+        <v>1774</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>1792</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>1715</v>
+        <v>1944</v>
       </c>
       <c r="B26" t="s">
-        <v>1146</v>
+        <v>994</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>1716</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="32" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1796</v>
+        <v>1773</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>1718</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="B28" t="s">
-        <v>1807</v>
+        <v>1783</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1721</v>
+        <v>1947</v>
       </c>
       <c r="B29" t="s">
-        <v>1722</v>
+        <v>1948</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1724</v>
+        <v>1949</v>
       </c>
       <c r="B30" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="30" t="s">
-        <v>1760</v>
+        <v>1746</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1766</v>
+        <v>1950</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>1763</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="31" t="s">
-        <v>1761</v>
+        <v>1747</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="31" t="s">
-        <v>1762</v>
+        <v>1748</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1768</v>
+        <v>1952</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>1765</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1745</v>
+        <v>1718</v>
       </c>
       <c r="C34" t="s">
-        <v>1775</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="B35" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="C35" t="s">
-        <v>1776</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="B36" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="C36" t="s">
-        <v>1777</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="B37" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="C37" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="30" t="s">
-        <v>1788</v>
+        <v>1768</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>1814</v>
+        <v>1954</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>1789</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="19" t="s">
-        <v>1801</v>
+        <v>1778</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1802</v>
+        <v>1956</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>1798</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="31" t="s">
-        <v>1803</v>
+        <v>1779</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1784</v>
+        <v>1957</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>1799</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1810</v>
+        <v>1786</v>
       </c>
       <c r="B41" t="s">
-        <v>1817</v>
+        <v>1783</v>
       </c>
       <c r="C41" t="s">
-        <v>1808</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1811</v>
+        <v>1787</v>
       </c>
       <c r="B42" t="s">
-        <v>1812</v>
+        <v>1788</v>
       </c>
       <c r="C42" t="s">
-        <v>1809</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1815</v>
+        <v>1789</v>
       </c>
       <c r="B43" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
       <c r="C43" t="s">
-        <v>1819</v>
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1966</v>
       </c>
     </row>
   </sheetData>
@@ -11370,7 +11420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -11385,222 +11435,222 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="13" t="s">
-        <v>1902</v>
+        <v>1875</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>1903</v>
+        <v>1876</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>1904</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1905</v>
+        <v>1878</v>
       </c>
       <c r="B2" t="s">
-        <v>1906</v>
+        <v>1879</v>
       </c>
       <c r="C2" t="s">
-        <v>1907</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="38" t="s">
-        <v>1908</v>
+        <v>1881</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1956</v>
+        <v>1929</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1909</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1910</v>
+        <v>1883</v>
       </c>
       <c r="B4" t="s">
-        <v>1911</v>
+        <v>1884</v>
       </c>
       <c r="C4" t="s">
-        <v>1912</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="38" t="s">
-        <v>1913</v>
+        <v>1886</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1955</v>
+        <v>1928</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1914</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1915</v>
+        <v>1888</v>
       </c>
       <c r="B6" t="s">
-        <v>1916</v>
+        <v>1889</v>
       </c>
       <c r="C6" t="s">
-        <v>1917</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1918</v>
+        <v>1891</v>
       </c>
       <c r="B7" t="s">
-        <v>1919</v>
+        <v>1892</v>
       </c>
       <c r="C7" t="s">
-        <v>1920</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1921</v>
+        <v>1894</v>
       </c>
       <c r="B8" t="s">
-        <v>1954</v>
+        <v>1927</v>
       </c>
       <c r="C8" t="s">
-        <v>1922</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1923</v>
+        <v>1896</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>1924</v>
+        <v>1897</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1925</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1926</v>
+        <v>1899</v>
       </c>
       <c r="B10" t="s">
-        <v>1927</v>
+        <v>1900</v>
       </c>
       <c r="C10" t="s">
-        <v>1928</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1929</v>
+        <v>1902</v>
       </c>
       <c r="B11" t="s">
-        <v>1930</v>
+        <v>1903</v>
       </c>
       <c r="C11" t="s">
-        <v>1931</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="40" t="s">
-        <v>1932</v>
+        <v>1905</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>1933</v>
+        <v>1906</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>1934</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
-        <v>1935</v>
+        <v>1908</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>1936</v>
+        <v>1909</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>1937</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40" t="s">
-        <v>1938</v>
+        <v>1911</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>1958</v>
+        <v>1931</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>1939</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="38" t="s">
-        <v>1940</v>
+        <v>1913</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1959</v>
+        <v>1932</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1941</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="38" t="s">
-        <v>1942</v>
+        <v>1915</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1960</v>
+        <v>1933</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>1943</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1944</v>
+        <v>1917</v>
       </c>
       <c r="B17" t="s">
-        <v>1957</v>
+        <v>1930</v>
       </c>
       <c r="C17" t="s">
-        <v>1945</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1946</v>
+        <v>1919</v>
       </c>
       <c r="B18" t="s">
-        <v>1961</v>
+        <v>1934</v>
       </c>
       <c r="C18" t="s">
-        <v>1947</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1948</v>
+        <v>1921</v>
       </c>
       <c r="B19" t="s">
-        <v>1949</v>
+        <v>1922</v>
       </c>
       <c r="C19" t="s">
-        <v>1950</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1951</v>
+        <v>1924</v>
       </c>
       <c r="B20" t="s">
-        <v>1952</v>
+        <v>1925</v>
       </c>
       <c r="C20" t="s">
-        <v>1953</v>
+        <v>1926</v>
       </c>
     </row>
   </sheetData>
@@ -13041,7 +13091,7 @@
         <v>629</v>
       </c>
       <c r="B84" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>442</v>
@@ -17130,7 +17180,7 @@
         <v>1143</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>968</v>

--- a/config_Release/audio_config.xlsx
+++ b/config_Release/audio_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="787" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="game|游戏内" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="ttl|弹弹乐" sheetId="15" r:id="rId14"/>
     <sheet name="pgdz|苹果大战" sheetId="16" r:id="rId15"/>
     <sheet name="sdbgj|三打白骨精" sheetId="17" r:id="rId16"/>
-    <sheet name="lwzb|龙王争霸" sheetId="18" r:id="rId17"/>
+    <sheet name="cbzz|赤壁之战" sheetId="19" r:id="rId17"/>
+    <sheet name="lwzb|龙王争霸" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="2019">
   <si>
     <t>sod_game_lose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6203,144 +6204,1234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>免费游戏背景音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精烟雾音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空消除的音效-俺老孙来也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_huo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空火焰音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_skill.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME金箍棒音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-火眼金睛-妖怪哪里跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除唐僧免费次数撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空撞击白骨精音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-金箍棒-吃俺老孙一棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-金箍-领教下俺老孙的本事吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_xhz.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能-小猴子-哼，这就是他们的本事？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli1</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算4（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_count_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_jl4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_shxxl_jiangli1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jiangli3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_jiesuan1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_goldboomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_yincanghuodong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_zuantouboom.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_4bei.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod_game_card_bombsod.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_lababaozha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_ttl_dabaopo.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼人声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_boomfish.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3</t>
+  </si>
+  <si>
+    <t>白骨精-老妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-老头音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2消</t>
+  </si>
+  <si>
+    <t>4消</t>
+  </si>
+  <si>
+    <t>5消</t>
+  </si>
+  <si>
+    <t>结算2</t>
+  </si>
+  <si>
+    <t>结算3（暂时屏蔽背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu1_rensheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_csxxl_caishendanchufa.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_free_chufa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME奖池撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_yanwu.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_huo.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_yj.mp3</t>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_sl.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME白骨精出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG GAME孙悟空摇奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_swk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_xc.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_hyjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jgb.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空卡牌攻击白骨精时音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏前白骨精对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_gongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_bgj_duihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_bgj_duihua.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jinru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jinru.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开游戏，孙悟空说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang7.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang8.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang9.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang10.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang16.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang17.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang19.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang23.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang0.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_siwang6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang7.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang8.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang9.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang10.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang16.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang22.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang25.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang26.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang29.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang30.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang31.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂鲨吃鱼得分时的音效，循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_bossDjisha.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_3dby_shandianyu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电海鳗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~40倍鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_siwang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_zhadanyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_shandianyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海默死亡的吼叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次你又赢了|60虎鲸</t>
+  </si>
+  <si>
+    <t>这可是传家宝|穿云蟹、电磁蟹、奇遇蟹</t>
+  </si>
+  <si>
+    <t>哼，都欺负我|</t>
+  </si>
+  <si>
+    <t>不要这么对我嘛|</t>
+  </si>
+  <si>
+    <t>可恶啊|远古龙龟</t>
+  </si>
+  <si>
+    <t>我还会回来的|霸王蟹</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>黄金巨龙|黄金巨龙</t>
+  </si>
+  <si>
+    <t>2~10倍|</t>
+  </si>
+  <si>
+    <t>我会回来找你们的|深海狂鲨</t>
+  </si>
+  <si>
+    <t>手下留情啊|招财宝蟾</t>
+  </si>
+  <si>
+    <t>你好厉害呀|金龙转盘</t>
+  </si>
+  <si>
+    <t>每次倒霉的都是我|骰子龟</t>
+  </si>
+  <si>
+    <t>上帝救救我把</t>
+  </si>
+  <si>
+    <t>这次你赚太多了|炽火龙王</t>
+  </si>
+  <si>
+    <t>谁谁，不要啊|鲨鱼将军</t>
+  </si>
+  <si>
+    <t>吓死宝宝了</t>
+  </si>
+  <si>
+    <t>你就不能温柔点嘛|宝藏章鱼</t>
+  </si>
+  <si>
+    <t>哦，NO|深海巨鲸</t>
+  </si>
+  <si>
+    <t>天呐，你发大财咯|宝藏鳄鱼</t>
+  </si>
+  <si>
+    <t>为什么每次受伤的都是我|美人鱼</t>
+  </si>
+  <si>
+    <t>躲来躲去还是被打到了|黄金海龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你就知道欺负我|黄金狮子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦哦，我又被打中了|黄金河豚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的老天爷呀|黄金锤头鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你也太狠了吧|大金鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我上辈子欠你们的呀|金蟾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打我边上那条值钱|黄金灯笼鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangchijinbi_fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池界面金币飞行音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_by_jiangchijinbi_fly.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name|名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_name|文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaishicn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开炮声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_yazhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他玩家充能声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiguang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_daojishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_daojishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时-5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jieshu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_bipaibg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_bipaibg.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比牌时的背景声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_vs.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS碰撞声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaipai.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开牌声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shengli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shengli.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shibai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shibai.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shouji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiesuan_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面-赢钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiesuan_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面-数钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖界面音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_zhuandong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖转动音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_tingzhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_tingzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖开奖停止音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_huojiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_huojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神大奖获奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jieshu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_zhongzhi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_caishenyaojiang.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_shouji.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiangli2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_jiangli3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_lwzb_cs_zhuandong.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_kaishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_1xiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_1xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_yanwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精消除音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏中消除唐僧音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精摇奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洒落白骨精音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_swk_ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能界面撞击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空技能摇奖音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_jg.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_xhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精-村妇音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏触发音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bg_bgj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_bgj_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_disanpai_yj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_disanpai_yj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三排摇奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_down.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素栏落下声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_sdbgj_ts_free.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇到3个唐僧触发音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bgm_sdbgj_free_beijing.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免费游戏背景音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精烟雾音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空消除的音效-俺老孙来也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_huo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空火焰音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_skill.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME金箍棒音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-火眼金睛-妖怪哪里跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除唐僧免费次数撞击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空撞击白骨精音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_yj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jgb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-金箍棒-吃俺老孙一棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-金箍-领教下俺老孙的本事吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_xhz.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能-小猴子-哼，这就是他们的本事？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli1</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jiangli4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算4（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_count_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_jl4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_shxxl_jiangli1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_ts_xc.mp3</t>
+    <t>bgm_cbzz_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_beijing</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_luoxia</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_1xiao</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_2xiao</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_3xiao</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_4xiao</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_5xiao</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_6xiao</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiajianzhu</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiangli1</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiangli2</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiangli2.mp3</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiangli3</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiangli3.mp3</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiangli4</t>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiajianzhu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_hufu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次消除虎符时的前奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择草船借箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择火烧赤壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_hufu.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_hscb_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火烧赤壁背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草船借箭背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj_beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢曹丞相赠箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_hscb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放箭音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj_fangjian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_jiangli4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_hscb_beijing.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_hscb_ranshao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费次数撞击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_hscb_ranshao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj_xccxzj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭元素上飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_zj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ranshao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_xxl_1xiao.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj_fangjian.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj_xccxzj.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_hscb.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_kaishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_kaishi.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6348,916 +7439,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm_sdbgj_jiangli3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_jiesuan1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_goldboomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_yincanghuodong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenwuchuxian.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_zuantouboom.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_4bei.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sod_game_card_bombsod.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_lababaozha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_ttl_dabaopo.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang21.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼人声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_boomfish.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3</t>
-  </si>
-  <si>
-    <t>白骨精-老妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-老头音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素落下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2消</t>
-  </si>
-  <si>
-    <t>4消</t>
-  </si>
-  <si>
-    <t>5消</t>
-  </si>
-  <si>
-    <t>结算2</t>
-  </si>
-  <si>
-    <t>结算3（暂时屏蔽背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu1_rensheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金炸弹鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishenyaojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_tiannvsanhuabeijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishendanchufa.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_free_chufa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME奖池撞击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_yanwu.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_huo.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_yj.mp3</t>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_sl.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME白骨精出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG GAME孙悟空摇奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_bgj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_swk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_xc.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_hyjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_zj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jgb.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空卡牌攻击白骨精时音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏前白骨精对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_gongji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_bgj_duihua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_bgj_duihua.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jinru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jinru.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开游戏，孙悟空说话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang7.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang8.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang9.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang10.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang12.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang14.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang15.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang16.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang17.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang19.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang20.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang23.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang0.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_siwang6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang6.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang7.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang8.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang9.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang10.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang12.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang14.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang15.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang16.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang20.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang22.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang25.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang29.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang30.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang31.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂鲨吃鱼得分时的音效，循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_bossDjisha.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_tiaozhanrenxianshi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_3dby_shandianyu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电海鳗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~40倍鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_siwang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_zhadanyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_shandianyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海默死亡的吼叫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这次你又赢了|60虎鲸</t>
-  </si>
-  <si>
-    <t>这可是传家宝|穿云蟹、电磁蟹、奇遇蟹</t>
-  </si>
-  <si>
-    <t>哼，都欺负我|</t>
-  </si>
-  <si>
-    <t>不要这么对我嘛|</t>
-  </si>
-  <si>
-    <t>可恶啊|远古龙龟</t>
-  </si>
-  <si>
-    <t>我还会回来的|霸王蟹</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>黄金巨龙|黄金巨龙</t>
-  </si>
-  <si>
-    <t>2~10倍|</t>
-  </si>
-  <si>
-    <t>我会回来找你们的|深海狂鲨</t>
-  </si>
-  <si>
-    <t>手下留情啊|招财宝蟾</t>
-  </si>
-  <si>
-    <t>你好厉害呀|金龙转盘</t>
-  </si>
-  <si>
-    <t>每次倒霉的都是我|骰子龟</t>
-  </si>
-  <si>
-    <t>上帝救救我把</t>
-  </si>
-  <si>
-    <t>这次你赚太多了|炽火龙王</t>
-  </si>
-  <si>
-    <t>谁谁，不要啊|鲨鱼将军</t>
-  </si>
-  <si>
-    <t>吓死宝宝了</t>
-  </si>
-  <si>
-    <t>你就不能温柔点嘛|宝藏章鱼</t>
-  </si>
-  <si>
-    <t>哦，NO|深海巨鲸</t>
-  </si>
-  <si>
-    <t>天呐，你发大财咯|宝藏鳄鱼</t>
-  </si>
-  <si>
-    <t>为什么每次受伤的都是我|美人鱼</t>
-  </si>
-  <si>
-    <t>躲来躲去还是被打到了|黄金海龟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你就知道欺负我|黄金狮子鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哦哦，我又被打中了|黄金河豚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的老天爷呀|黄金锤头鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你也太狠了吧|大金鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我上辈子欠你们的呀|金蟾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打我边上那条值钱|黄金灯笼鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiangchijinbi_fly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖池界面金币飞行音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_by_jiangchijinbi_fly.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name|名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_name|文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|使用说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_beijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_beijing.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaishicn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始充能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaipao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaipao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开炮声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_yazhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他玩家充能声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiguang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiguang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_daojishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_daojishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒计时-5秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jieshu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止充能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_bipaibg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_bipaibg.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比牌时的背景声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_vs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_vs.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VS碰撞声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaipai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaipai.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开牌声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shengli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shengli.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜利声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shibai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shibai.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shouji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiesuan_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算界面-赢钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiesuan_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算界面-数钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖界面音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_zhuandong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖转动音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_tingzhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_tingzhi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖开奖停止音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_huojiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_huojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神大奖获奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jieshu.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_zhongzhi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_kaishi.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_caishenyaojiang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_shouji.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiangli2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_jiangli3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_lwzb_cs_zhuandong.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_kaishi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_1xiao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_1xiao.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_yanwu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精消除音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏中消除唐僧音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精摇奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洒落白骨精音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_swk_ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能界面撞击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空技能摇奖音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_jg.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_xhz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨精-村妇音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_csxxl_caishendanchufa.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏触发音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bg_bgj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_bgj_yj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_disanpai_yj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_disanpai_yj.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三排摇奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_down.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素栏落下声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_sdbgj_ts_free.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇到3个唐僧触发音效</t>
+    <t>bgm_cbzz_ccjj_fei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_ccjj_fei.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_cbzz_down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7409,7 +7603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7497,6 +7691,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -8225,7 +8441,7 @@
         <v>1003</v>
       </c>
       <c r="B40" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C40" t="s">
         <v>1002</v>
@@ -8255,13 +8471,13 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="36" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>1872</v>
       </c>
-      <c r="B43" s="37" t="s">
-        <v>1874</v>
-      </c>
       <c r="C43" s="36" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8673,7 +8889,7 @@
         <v>1302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1303</v>
@@ -8684,7 +8900,7 @@
         <v>1308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1310</v>
@@ -8695,7 +8911,7 @@
         <v>1311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>1312</v>
@@ -8706,7 +8922,7 @@
         <v>1304</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1313</v>
@@ -9125,7 +9341,7 @@
         <v>1456</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>1457</v>
@@ -9134,13 +9350,13 @@
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="13" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="25"/>
@@ -9151,10 +9367,10 @@
         <v>1458</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="25"/>
@@ -9165,10 +9381,10 @@
         <v>812</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="25"/>
@@ -9179,10 +9395,10 @@
         <v>813</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="25"/>
@@ -9193,10 +9409,10 @@
         <v>814</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="25"/>
@@ -9207,10 +9423,10 @@
         <v>815</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="25"/>
@@ -9221,10 +9437,10 @@
         <v>1530</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="25"/>
@@ -9235,10 +9451,10 @@
         <v>817</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="14"/>
@@ -9248,10 +9464,10 @@
         <v>818</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="14"/>
@@ -9261,10 +9477,10 @@
         <v>819</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="14"/>
@@ -9274,10 +9490,10 @@
         <v>820</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="14"/>
@@ -9287,10 +9503,10 @@
         <v>821</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="14"/>
@@ -9300,10 +9516,10 @@
         <v>822</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="14"/>
@@ -9313,10 +9529,10 @@
         <v>823</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="14"/>
@@ -9327,10 +9543,10 @@
         <v>824</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -9342,10 +9558,10 @@
         <v>825</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -9357,10 +9573,10 @@
         <v>826</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="D36" s="14"/>
       <c r="F36" s="14"/>
@@ -9370,10 +9586,10 @@
         <v>827</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D37" s="14"/>
       <c r="F37" s="14"/>
@@ -9383,10 +9599,10 @@
         <v>1459</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -9397,10 +9613,10 @@
         <v>1460</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -9412,7 +9628,7 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="14" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -9424,7 +9640,7 @@
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="14" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -9435,10 +9651,10 @@
         <v>1529</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -9449,10 +9665,10 @@
         <v>1463</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D43" s="14"/>
       <c r="F43" s="14"/>
@@ -9462,10 +9678,10 @@
         <v>1464</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -9476,10 +9692,10 @@
         <v>1465</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -9490,10 +9706,10 @@
         <v>1466</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -9504,10 +9720,10 @@
         <v>1467</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -9518,10 +9734,10 @@
         <v>1468</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -9532,10 +9748,10 @@
         <v>1469</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -9546,10 +9762,10 @@
         <v>1470</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -9560,10 +9776,10 @@
         <v>1471</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -9574,10 +9790,10 @@
         <v>1472</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -9588,10 +9804,10 @@
         <v>1473</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="21"/>
@@ -9602,10 +9818,10 @@
         <v>1474</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
@@ -9616,10 +9832,10 @@
         <v>1475</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -9630,10 +9846,10 @@
         <v>1545</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -9644,10 +9860,10 @@
         <v>1574</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -9658,10 +9874,10 @@
         <v>1575</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
@@ -9672,10 +9888,10 @@
         <v>1576</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -9686,10 +9902,10 @@
         <v>1577</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -9700,10 +9916,10 @@
         <v>1578</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -9714,10 +9930,10 @@
         <v>1579</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -9728,10 +9944,10 @@
         <v>1580</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D63" s="14"/>
       <c r="F63" s="14"/>
@@ -9788,13 +10004,13 @@
     </row>
     <row r="70" spans="1:6" ht="16.5">
       <c r="A70" s="13" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>1681</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="25"/>
@@ -9805,10 +10021,10 @@
         <v>1476</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="25"/>
@@ -9816,13 +10032,13 @@
     </row>
     <row r="72" spans="1:6" ht="16.5">
       <c r="A72" s="13" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="13"/>
@@ -9845,7 +10061,7 @@
         <v>1480</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>1481</v>
@@ -9857,7 +10073,7 @@
         <v>1482</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>1483</v>
@@ -9965,7 +10181,7 @@
         <v>1503</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>1504</v>
@@ -10148,7 +10364,7 @@
         <v>1621</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D99" s="13"/>
     </row>
@@ -10205,7 +10421,7 @@
         <v>1614</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>1615</v>
@@ -10217,7 +10433,7 @@
         <v>1616</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>1617</v>
@@ -10289,7 +10505,7 @@
         <v>1646</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>1664</v>
@@ -10441,25 +10657,25 @@
     </row>
     <row r="123" spans="1:5" ht="16.5">
       <c r="A123" s="13" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:5" ht="16.5">
       <c r="A124" s="13" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D124" s="14"/>
     </row>
@@ -10611,7 +10827,7 @@
         <v>1392</v>
       </c>
       <c r="B12" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C12" t="s">
         <v>1393</v>
@@ -10710,7 +10926,7 @@
         <v>1415</v>
       </c>
       <c r="B21" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C21" t="s">
         <v>1416</v>
@@ -10895,8 +11111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C45" sqref="A45:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10922,7 +11138,7 @@
         <v>1682</v>
       </c>
       <c r="B2" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C2" t="s">
         <v>746</v>
@@ -10930,10 +11146,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B3" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="C3" t="s">
         <v>1683</v>
@@ -10947,18 +11163,18 @@
         <v>957</v>
       </c>
       <c r="C4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B5" t="s">
         <v>1685</v>
       </c>
       <c r="C5" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10969,7 +11185,7 @@
         <v>1685</v>
       </c>
       <c r="C6" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10991,7 +11207,7 @@
         <v>1685</v>
       </c>
       <c r="C8" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11002,7 +11218,7 @@
         <v>1685</v>
       </c>
       <c r="C9" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11010,7 +11226,7 @@
         <v>1690</v>
       </c>
       <c r="B10" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="C10" t="s">
         <v>1332</v>
@@ -11032,381 +11248,381 @@
         <v>1693</v>
       </c>
       <c r="B12" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C12" t="s">
         <v>1694</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B13" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="C13" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B14" t="s">
         <v>1697</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>1698</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C15" t="s">
         <v>1700</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B16" t="s">
         <v>1702</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>1703</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B17" t="s">
         <v>1705</v>
       </c>
-      <c r="B17" t="s">
-        <v>1706</v>
-      </c>
       <c r="C17" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B18" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="C18" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B19" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B20" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B21" t="s">
         <v>994</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B22" t="s">
         <v>994</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B23" t="s">
         <v>897</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B24" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B25" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B26" t="s">
         <v>994</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="32" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>1713</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B29" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B30" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>1716</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="30" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="31" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>1747</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="31" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>1748</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C34" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B35" t="s">
-        <v>1730</v>
+        <v>2014</v>
       </c>
       <c r="C35" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B36" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C36" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B37" t="s">
         <v>1721</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>1722</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="30" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>1954</v>
+        <v>1765</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="19" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="31" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B41" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="C41" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B42" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C42" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B43" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C43" t="s">
         <v>1790</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="B44" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="C44" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="B45" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="C45" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="B46" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="C46" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
   </sheetData>
@@ -11417,6 +11633,550 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.125" customWidth="1"/>
+    <col min="4" max="8" width="23" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" s="42" customFormat="1">
+      <c r="A2" s="44" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" s="42" customFormat="1">
+      <c r="A3" s="47" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" s="42" customFormat="1">
+      <c r="A4" s="45" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>957</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>915</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" s="42" customFormat="1">
+      <c r="A5" s="45" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>917</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" s="42" customFormat="1">
+      <c r="A6" s="45" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>959</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" s="42" customFormat="1">
+      <c r="A7" s="45" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>960</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>921</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" s="42" customFormat="1">
+      <c r="A8" s="45" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>961</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>923</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" s="42" customFormat="1">
+      <c r="A9" s="45" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>962</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" s="42" customFormat="1">
+      <c r="A10" s="45" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>963</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>927</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" s="42" customFormat="1">
+      <c r="A11" s="44" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" s="42" customFormat="1">
+      <c r="A12" s="45" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" s="42" customFormat="1">
+      <c r="A13" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>994</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" s="42" customFormat="1">
+      <c r="A14" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" s="42" customFormat="1">
+      <c r="A15" s="47" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" s="42" customFormat="1">
+      <c r="A16" s="44" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" s="42" customFormat="1">
+      <c r="A17" s="44" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" s="43" customFormat="1">
+      <c r="A18" s="47" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" s="43" customFormat="1">
+      <c r="A19" s="44" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" s="43" customFormat="1">
+      <c r="A20" s="44" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" s="43" customFormat="1">
+      <c r="A21" s="44" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" s="43" customFormat="1">
+      <c r="A22" s="47" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" s="43" customFormat="1">
+      <c r="A23" s="44" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" s="43" customFormat="1">
+      <c r="A24" s="44" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" s="43" customFormat="1">
+      <c r="A25" s="44" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="1:8" s="43" customFormat="1">
+      <c r="A26" s="44" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -11435,222 +12195,222 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="13" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1875</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C2" t="s">
         <v>1878</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="38" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C4" t="s">
         <v>1883</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="38" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C6" t="s">
         <v>1888</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C7" t="s">
         <v>1891</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B8" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="C8" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>1896</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C10" t="s">
         <v>1899</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C11" t="s">
         <v>1902</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="40" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>1905</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="40" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>1908</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="38" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="38" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B17" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="C17" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B18" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="C18" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C19" t="s">
         <v>1921</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C20" t="s">
         <v>1924</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1926</v>
       </c>
     </row>
   </sheetData>
@@ -13091,7 +13851,7 @@
         <v>629</v>
       </c>
       <c r="B84" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>442</v>
@@ -16731,7 +17491,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17180,7 +17940,7 @@
         <v>1143</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>968</v>
